--- a/Tests/WebVella.DocumentTemplates.Tests/Files/TemplateFunction-CONCAT-1.xlsx
+++ b/Tests/WebVella.DocumentTemplates.Tests/Files/TemplateFunction-CONCAT-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.DocumentTemplates\Tests\WebVella.DocumentTemplates.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A43564-0D03-4BB2-9E3D-6456A1635FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F757236-E3F9-451E-A6F5-29EDE45B8AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6876" yWindow="5880" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="57840" yWindow="12735" windowWidth="28560" windowHeight="15240" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="{{name}}" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>{{name}}</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>{{=CONCAT(A2)(S=',')}}</t>
   </si>
 </sst>
 </file>
@@ -111,11 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,32 +434,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81CDE04-363B-4839-A800-71666C3D7C99}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
